--- a/output/동부대로_W_여름_배출량/동부대로_W_여름_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_W_여름_배출량/동부대로_W_여름_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1204 +397,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.47404655875423</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.1533190731561433</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F2">
         <v>0.1195638622305612</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>2.513432598465946</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>2.731629404327095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.11742239131369</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.4303449911666149</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F3">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>0.5595408508051453</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.451998752699869</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>2.597463289940635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.363096817772729</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
+      <c r="I4">
         <v>2.132650087744054</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.569146336738373</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.2151724955833074</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F5">
         <v>0.2590550348328826</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.329954054922481</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>2.475418592163247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1.442346632759515</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.5020691563610508</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F6">
         <v>0.398546207435204</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>2.888276614312813</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>2.961008882933196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.537446410743659</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.645517486749922</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F7">
         <v>0.3188369659481632</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>3.185081570977951</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>3.621475182700251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.624621207229124</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.1971245226293271</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.4303449911666149</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F8">
         <v>0.2192004140893622</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>3.110766393177451</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>3.183498661797834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1.76727087420534</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.004138312722102</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>0.5818581489630653</v>
+      </c>
+      <c r="F9">
         <v>0.3786188970634439</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>3.557376611968764</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>4.13923476093183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.393344412600952</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.7889658171387939</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>0.2909290744815327</v>
+      </c>
+      <c r="F10">
         <v>0.4384008281787243</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>3.766353639386124</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>4.057282713867657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.971868062004495</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.7172416519443581</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F11">
         <v>0.398546207435204</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>4.189493053378526</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>4.262225321998909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.123895041645879</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F12">
         <v>0.1594184829740816</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>2.759658216338541</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>2.977855022199691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1.933695485677591</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13">
         <v>0.199273103717602</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
+      <c r="I13">
         <v>2.954241624412802</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.141197335809726</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F14">
         <v>0.0797092414870408</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1.526417973280176</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>1.744614779141326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.8638229833559734</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.2868966607777432</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="G15">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>1.420102082332432</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>1.492834350952815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.5309737604114697</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1533190731561433</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F16">
         <v>0.0597819311152806</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>0.8957333371352074</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>0.9684656057555906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.2852993339524315</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>0.372910232898799</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.1743495929709305</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>0.375514692220086</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.2060495189656451</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>0.0597819311152806</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>0.4695057140698652</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.1188747224801798</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>0.0199273103717602</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="I20">
         <v>0.2625418895830017</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>0.2694493709550744</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.2151724955833074</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21">
         <v>0.0398546207435204</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
+      <c r="I21">
         <v>0.7062480265342499</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0.5468237234088269</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>0.509125880342682</v>
+      </c>
+      <c r="F22">
         <v>0.1594184829740816</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>0.5595408508051453</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H22" t="n">
-        <v>1.509335060925106</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>2.018460941267788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.505746484748944</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.358620825972179</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>0.3636613431019158</v>
+      </c>
+      <c r="F23">
         <v>0.298909655576403</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>2.672462626269875</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>3.036123969371791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.337869542110202</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>1.004138312722102</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F24">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>0.3996720362893895</v>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>4.130175860009295</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>4.348372665870445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3.138292673476746</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.9324141475276656</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F25">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H25" t="n">
-        <v>4.839943617965911</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>5.276337229688211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.759345892706661</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.4303449911666149</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>0.2909290744815327</v>
+      </c>
+      <c r="F26">
         <v>0.1594184829740816</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H26" t="n">
-        <v>3.20290689710891</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>3.493835971590443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.339321873276694</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F27">
         <v>0.3586915866916836</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>0.719409665320901</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.117927820096926</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>3.336124625958075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.497821503250266</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.358620825972179</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28">
         <v>0.3387642763199235</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28">
         <v>2.539818475831572</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.830670726194768</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.5737933215554863</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F29">
         <v>0.3387642763199235</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>3.106771402574873</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>3.179503671195256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1.52952142924498</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.2151724955833074</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F30">
         <v>0.3188369659481632</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.367308828113571</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>2.585505633974721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.410646706764801</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.4303449911666149</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F31">
         <v>0.3188369659481632</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>2.181731388616171</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>2.327195925856937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.94162046717627</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.4303449911666149</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32">
         <v>0.2789823452046428</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32">
         <v>3.185007704777568</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1.901995559682876</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.1314163484195514</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.7889658171387939</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F33">
         <v>0.398546207435204</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>3.300858339934304</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>3.737251951656603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2.47259422758774</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1.291034973499844</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F34">
         <v>0.3188369659481632</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.07820094861158854</v>
       </c>
-      <c r="H34" t="n">
-        <v>4.248278014593703</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>4.684671626316002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>3.486991859418608</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.7172416519443581</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>0.1454645372407663</v>
+      </c>
+      <c r="F35">
         <v>0.2590550348328826</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H35" t="n">
-        <v>4.662257835017399</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>4.807722372258165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2.076345152653807</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>1.004138312722102</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F36">
         <v>0.298909655576403</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H36" t="n">
-        <v>3.847744847972577</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>3.92047711659296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1.481971540252909</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1752217978927352</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.5020691563610508</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>0.07273226862038316</v>
+      </c>
+      <c r="F37">
         <v>0.1394911726023214</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>2.53855688888265</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>2.611289157503033</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.442346632759515</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1095136236829595</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>0.2181968058611496</v>
+      </c>
+      <c r="F38">
         <v>0.1394911726023214</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>1.994668573949423</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>2.212865379810573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.9034478908493665</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.219027247365919</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.358620825972179</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>0.0398546207435204</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>1.799854281010413</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.5071988159154339</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>0.0398546207435204</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40">
         <v>0.670793293390016</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.3566241674405395</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.0597819311152806</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>0.4821142727655958</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.1664246114722517</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.0876108989463676</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>0.5655628973866887</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.1267997039788585</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>0.09963655185880101</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.0799344072578779</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>0.3063706630955374</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.09509977798414387</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.1598688145157558</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44">
         <v>0.3266927576943355</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0.3249242414458248</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.0219027247365919</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.07172416519443579</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45">
         <v>0.1793457933458418</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.2398032217736337</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
+      <c r="I45">
         <v>0.837700146496328</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0.5151237974141125</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.1434483303888716</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>0.2909290744815327</v>
+      </c>
+      <c r="F46">
         <v>0.1793457933458418</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>0.3197376290315116</v>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>1.223363724390113</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>1.514292798871646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.695946040717232</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.0657081742097757</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.7172416519443581</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>0.6545904175834485</v>
+      </c>
+      <c r="F47">
         <v>0.2590550348328826</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>0.799344072578779</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.03910047430579427</v>
       </c>
-      <c r="H47" t="n">
-        <v>3.576395448588822</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>4.23098586617227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>2.47259422758774</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.0438054494731838</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1.004138312722102</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>0.4363936117222991</v>
+      </c>
+      <c r="F48">
         <v>0.2590550348328826</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>0.4796064435472673</v>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="n">
-        <v>4.259199468163175</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>4.695593079885475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>2.678643746553387</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.1533190731561433</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.7889658171387939</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>0.509125880342682</v>
+      </c>
+      <c r="F49">
         <v>0.3188369659481632</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>0.6394752580630232</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.1564018972231771</v>
       </c>
-      <c r="H49" t="n">
-        <v>4.735642758082689</v>
+      <c r="I49">
+        <v>5.244768638425371</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>